--- a/src/assets/Admission_Download_xlsx.xlsx
+++ b/src/assets/Admission_Download_xlsx.xlsx
@@ -5,15 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uthayakumar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uthaya\Concert care\My project\React\Cashflow\Cashflow\cash_flow_react\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15F97BAB-CCD3-428E-AF89-00BE7744C5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBB556A-6D48-4539-BC96-B532329E25DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FC85677A-0978-4EC8-B099-AFE498F03295}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>Student Name</t>
   </si>
@@ -94,12 +98,114 @@
       <t> </t>
     </r>
   </si>
+  <si>
+    <t>Fee Type</t>
+  </si>
+  <si>
+    <t>Actual Fees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid </t>
+  </si>
+  <si>
+    <t>Refund</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Cummulative amount</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Mode of Pay</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year </t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade </t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>Academic Year Id</t>
+  </si>
+  <si>
+    <t>Academic</t>
+  </si>
+  <si>
+    <t>Van</t>
+  </si>
+  <si>
+    <t>To Grade Id</t>
+  </si>
+  <si>
+    <t>To Section Id</t>
+  </si>
+  <si>
+    <t>Fee Type Id</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Uthay</t>
+  </si>
+  <si>
+    <t>PreKG</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>.com</t>
+  </si>
+  <si>
+    <t>2021-2022</t>
+  </si>
+  <si>
+    <t>2022-2023</t>
+  </si>
+  <si>
+    <t>Sagar</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Ouccupation</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +226,12 @@
       <color rgb="FFE74A3B"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,9 +254,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60A56EF-C698-4B82-A3DF-31264405709C}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,69 +594,572 @@
     <col min="1" max="1" width="14.88671875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.88671875" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" customWidth="1"/>
-    <col min="13" max="13" width="19.21875" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" customWidth="1"/>
-    <col min="16" max="16" width="24" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" customWidth="1"/>
+    <col min="10" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="24.33203125" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" customWidth="1"/>
+    <col min="16" max="16" width="19.21875" customWidth="1"/>
+    <col min="18" max="18" width="17.109375" customWidth="1"/>
+    <col min="19" max="19" width="24" customWidth="1"/>
+    <col min="21" max="21" width="24" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" customWidth="1"/>
+    <col min="26" max="26" width="20.77734375" customWidth="1"/>
+    <col min="27" max="27" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="T1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="5">
+        <v>36937</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="5">
+        <v>44632</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="4">
+        <f>VLOOKUP(H2,Sheet2!A:B,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2">
+        <f>VLOOKUP(J2,Sheet2!C:D,2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2" t="e">
+        <f>U2=VLOOKUP(T2,Sheet2!A:F,6,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>9999999999</v>
+      </c>
+      <c r="S2" s="2">
+        <v>9999999999</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="2">
+        <f>VLOOKUP(T2,Sheet2!E:F,2,0)</f>
+        <v>222</v>
+      </c>
+      <c r="V2" s="2">
+        <v>5000</v>
+      </c>
+      <c r="W2" s="2">
+        <v>510</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>44632</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" s="2"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F657AB-768C-499C-9443-0FD33590B1AB}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2">
+        <v>111</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <f ca="1">VLOOKUP(H2,Sheet2!A:B,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>222</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A738ACFB-5015-4DE7-8CCA-A121F7120044}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F6DC0D-7E53-4617-A7CE-1C1749D8F3B7}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8134A444-B523-4A5C-BB27-1C05F011C510}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>